--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pros1-Axl.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Pros1-Axl.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.003349</v>
+        <v>35.00246799999999</v>
       </c>
       <c r="H2">
-        <v>60.006698</v>
+        <v>70.00493599999999</v>
       </c>
       <c r="I2">
-        <v>0.1788086146751209</v>
+        <v>0.2259773487303484</v>
       </c>
       <c r="J2">
-        <v>0.1319456513375379</v>
+        <v>0.1743393500109074</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.8337055</v>
+        <v>7.6250945</v>
       </c>
       <c r="N2">
-        <v>3.667411</v>
+        <v>15.250189</v>
       </c>
       <c r="O2">
-        <v>0.00731350292930732</v>
+        <v>0.04070939579086774</v>
       </c>
       <c r="P2">
-        <v>0.00521519558215984</v>
+        <v>0.03146331898130678</v>
       </c>
       <c r="Q2">
-        <v>55.0173060797195</v>
+        <v>266.8971262332259</v>
       </c>
       <c r="R2">
-        <v>220.069224318878</v>
+        <v>1067.588504932904</v>
       </c>
       <c r="S2">
-        <v>0.001307717327211881</v>
+        <v>0.009199401329234698</v>
       </c>
       <c r="T2">
-        <v>0.0006881223779407304</v>
+        <v>0.005485294580386869</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.003349</v>
+        <v>35.00246799999999</v>
       </c>
       <c r="H3">
-        <v>60.006698</v>
+        <v>70.00493599999999</v>
       </c>
       <c r="I3">
-        <v>0.1788086146751209</v>
+        <v>0.2259773487303484</v>
       </c>
       <c r="J3">
-        <v>0.1319456513375379</v>
+        <v>0.1743393500109074</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>255.856579</v>
       </c>
       <c r="O3">
-        <v>0.3401505567095424</v>
+        <v>0.4553284220590499</v>
       </c>
       <c r="P3">
-        <v>0.3638376229081851</v>
+        <v>0.5278686814007956</v>
       </c>
       <c r="Q3">
-        <v>2558.85141122769</v>
+        <v>2985.203906345657</v>
       </c>
       <c r="R3">
-        <v>15353.10846736614</v>
+        <v>17911.22343807394</v>
       </c>
       <c r="S3">
-        <v>0.06082184982620444</v>
+        <v>0.1028939096184772</v>
       </c>
       <c r="T3">
-        <v>0.04800679213572199</v>
+        <v>0.09202828280652944</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.003349</v>
+        <v>35.00246799999999</v>
       </c>
       <c r="H4">
-        <v>60.006698</v>
+        <v>70.00493599999999</v>
       </c>
       <c r="I4">
-        <v>0.1788086146751209</v>
+        <v>0.2259773487303484</v>
       </c>
       <c r="J4">
-        <v>0.1319456513375379</v>
+        <v>0.1743393500109074</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>32.77748500000001</v>
+        <v>15.16635833333333</v>
       </c>
       <c r="N4">
-        <v>98.33245500000001</v>
+        <v>45.499075</v>
       </c>
       <c r="O4">
-        <v>0.1307288616208147</v>
+        <v>0.08097123046773937</v>
       </c>
       <c r="P4">
-        <v>0.1398324280804446</v>
+        <v>0.09387109301264401</v>
       </c>
       <c r="Q4">
-        <v>983.4343217972652</v>
+        <v>530.8599722390333</v>
       </c>
       <c r="R4">
-        <v>5900.60593078359</v>
+        <v>3185.159833434199</v>
       </c>
       <c r="S4">
-        <v>0.02337544664447345</v>
+        <v>0.01829766398453376</v>
       </c>
       <c r="T4">
-        <v>0.01845028080118368</v>
+        <v>0.01636542534063778</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.003349</v>
+        <v>35.00246799999999</v>
       </c>
       <c r="H5">
-        <v>60.006698</v>
+        <v>70.00493599999999</v>
       </c>
       <c r="I5">
-        <v>0.1788086146751209</v>
+        <v>0.2259773487303484</v>
       </c>
       <c r="J5">
-        <v>0.1319456513375379</v>
+        <v>0.1743393500109074</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>47.136178</v>
+        <v>69.594059</v>
       </c>
       <c r="N5">
-        <v>94.272356</v>
+        <v>139.188118</v>
       </c>
       <c r="O5">
-        <v>0.1879966962412183</v>
+        <v>0.3715537023867706</v>
       </c>
       <c r="P5">
-        <v>0.1340588154780033</v>
+        <v>0.2871649757941864</v>
       </c>
       <c r="Q5">
-        <v>1414.243199060122</v>
+        <v>2435.963823137612</v>
       </c>
       <c r="R5">
-        <v>5656.972796240488</v>
+        <v>9743.855292550446</v>
       </c>
       <c r="S5">
-        <v>0.03361542881839175</v>
+        <v>0.08396272057630735</v>
       </c>
       <c r="T5">
-        <v>0.01768847772578396</v>
+        <v>0.05006415522585641</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.003349</v>
+        <v>35.00246799999999</v>
       </c>
       <c r="H6">
-        <v>60.006698</v>
+        <v>70.00493599999999</v>
       </c>
       <c r="I6">
-        <v>0.1788086146751209</v>
+        <v>0.2259773487303484</v>
       </c>
       <c r="J6">
-        <v>0.1319456513375379</v>
+        <v>0.1743393500109074</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.043386333333333</v>
+        <v>2.038124</v>
       </c>
       <c r="N6">
-        <v>9.130158999999999</v>
+        <v>6.114372</v>
       </c>
       <c r="O6">
-        <v>0.01213816224243598</v>
+        <v>0.01088128108928572</v>
       </c>
       <c r="P6">
-        <v>0.01298342751363752</v>
+        <v>0.01261482310851168</v>
       </c>
       <c r="Q6">
-        <v>91.31178230083032</v>
+        <v>71.33937009003199</v>
       </c>
       <c r="R6">
-        <v>547.8706938049819</v>
+        <v>428.0362205401919</v>
       </c>
       <c r="S6">
-        <v>0.002170407975271837</v>
+        <v>0.002458923051346464</v>
       </c>
       <c r="T6">
-        <v>0.001713106799880613</v>
+        <v>0.002199260061240501</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>30.003349</v>
+        <v>35.00246799999999</v>
       </c>
       <c r="H7">
-        <v>60.006698</v>
+        <v>70.00493599999999</v>
       </c>
       <c r="I7">
-        <v>0.1788086146751209</v>
+        <v>0.2259773487303484</v>
       </c>
       <c r="J7">
-        <v>0.1319456513375379</v>
+        <v>0.1743393500109074</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>80.65247599999999</v>
+        <v>7.596356666666668</v>
       </c>
       <c r="N7">
-        <v>241.957428</v>
+        <v>22.78907</v>
       </c>
       <c r="O7">
-        <v>0.3216722202566815</v>
+        <v>0.04055596820628651</v>
       </c>
       <c r="P7">
-        <v>0.3440725104375696</v>
+        <v>0.04701710770255562</v>
       </c>
       <c r="Q7">
-        <v>2419.844385142124</v>
+        <v>265.8912311415867</v>
       </c>
       <c r="R7">
-        <v>14519.06631085274</v>
+        <v>1595.34738684952</v>
       </c>
       <c r="S7">
-        <v>0.05751776408356758</v>
+        <v>0.009164730170448932</v>
       </c>
       <c r="T7">
-        <v>0.04539887149702693</v>
+        <v>0.008196931996256374</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,16 +915,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>65.63887766666666</v>
+        <v>65.63887766666667</v>
       </c>
       <c r="H8">
         <v>196.916633</v>
       </c>
       <c r="I8">
-        <v>0.3911828904302115</v>
+        <v>0.4237672483194333</v>
       </c>
       <c r="J8">
-        <v>0.4329898872352535</v>
+        <v>0.4903985313772218</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.8337055</v>
+        <v>7.6250945</v>
       </c>
       <c r="N8">
-        <v>3.667411</v>
+        <v>15.250189</v>
       </c>
       <c r="O8">
-        <v>0.00731350292930732</v>
+        <v>0.04070939579086774</v>
       </c>
       <c r="P8">
-        <v>0.00521519558215984</v>
+        <v>0.03146331898130678</v>
       </c>
       <c r="Q8">
-        <v>120.3623709911938</v>
+        <v>500.5026450822729</v>
       </c>
       <c r="R8">
-        <v>722.174225947163</v>
+        <v>3003.015870493638</v>
       </c>
       <c r="S8">
-        <v>0.002860917215056256</v>
+        <v>0.01725130863504274</v>
       </c>
       <c r="T8">
-        <v>0.002258126947029181</v>
+        <v>0.01542956542068591</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>65.63887766666666</v>
+        <v>65.63887766666667</v>
       </c>
       <c r="H9">
         <v>196.916633</v>
       </c>
       <c r="I9">
-        <v>0.3911828904302115</v>
+        <v>0.4237672483194333</v>
       </c>
       <c r="J9">
-        <v>0.4329898872352535</v>
+        <v>0.4903985313772218</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>255.856579</v>
       </c>
       <c r="O9">
-        <v>0.3401505567095424</v>
+        <v>0.4553284220590499</v>
       </c>
       <c r="P9">
-        <v>0.3638376229081851</v>
+        <v>0.5278686814007956</v>
       </c>
       <c r="Q9">
-        <v>5598.046229730945</v>
+        <v>5598.046229730946</v>
       </c>
       <c r="R9">
-        <v>50382.41606757851</v>
+        <v>50382.41606757852</v>
       </c>
       <c r="S9">
-        <v>0.1330610779550844</v>
+        <v>0.1929532724975931</v>
       </c>
       <c r="T9">
-        <v>0.1575380113149578</v>
+        <v>0.2588660261189807</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,16 +1039,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>65.63887766666666</v>
+        <v>65.63887766666667</v>
       </c>
       <c r="H10">
         <v>196.916633</v>
       </c>
       <c r="I10">
-        <v>0.3911828904302115</v>
+        <v>0.4237672483194333</v>
       </c>
       <c r="J10">
-        <v>0.4329898872352535</v>
+        <v>0.4903985313772218</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>32.77748500000001</v>
+        <v>15.16635833333333</v>
       </c>
       <c r="N10">
-        <v>98.33245500000001</v>
+        <v>45.499075</v>
       </c>
       <c r="O10">
-        <v>0.1307288616208147</v>
+        <v>0.08097123046773937</v>
       </c>
       <c r="P10">
-        <v>0.1398324280804446</v>
+        <v>0.09387109301264401</v>
       </c>
       <c r="Q10">
-        <v>2151.477328136002</v>
+        <v>995.5027392904973</v>
       </c>
       <c r="R10">
-        <v>19363.29595322402</v>
+        <v>8959.524653614475</v>
       </c>
       <c r="S10">
-        <v>0.05113889395148143</v>
+        <v>0.03431295552835257</v>
       </c>
       <c r="T10">
-        <v>0.06054602726638339</v>
+        <v>0.04603424615217521</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>65.63887766666666</v>
+        <v>65.63887766666667</v>
       </c>
       <c r="H11">
         <v>196.916633</v>
       </c>
       <c r="I11">
-        <v>0.3911828904302115</v>
+        <v>0.4237672483194333</v>
       </c>
       <c r="J11">
-        <v>0.4329898872352535</v>
+        <v>0.4903985313772218</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>47.136178</v>
+        <v>69.594059</v>
       </c>
       <c r="N11">
-        <v>94.272356</v>
+        <v>139.188118</v>
       </c>
       <c r="O11">
-        <v>0.1879966962412183</v>
+        <v>0.3715537023867706</v>
       </c>
       <c r="P11">
-        <v>0.1340588154780033</v>
+        <v>0.2871649757941864</v>
       </c>
       <c r="Q11">
-        <v>3093.965821416225</v>
+        <v>4568.075925027782</v>
       </c>
       <c r="R11">
-        <v>18563.79492849735</v>
+        <v>27408.4555501667</v>
       </c>
       <c r="S11">
-        <v>0.07354109102697025</v>
+        <v>0.1574522900633394</v>
       </c>
       <c r="T11">
-        <v>0.05804611139671232</v>
+        <v>0.1408252823924445</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>65.63887766666666</v>
+        <v>65.63887766666667</v>
       </c>
       <c r="H12">
         <v>196.916633</v>
       </c>
       <c r="I12">
-        <v>0.3911828904302115</v>
+        <v>0.4237672483194333</v>
       </c>
       <c r="J12">
-        <v>0.4329898872352535</v>
+        <v>0.4903985313772218</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.043386333333333</v>
+        <v>2.038124</v>
       </c>
       <c r="N12">
-        <v>9.130158999999999</v>
+        <v>6.114372</v>
       </c>
       <c r="O12">
-        <v>0.01213816224243598</v>
+        <v>0.01088128108928572</v>
       </c>
       <c r="P12">
-        <v>0.01298342751363752</v>
+        <v>0.01261482310851168</v>
       </c>
       <c r="Q12">
-        <v>199.7644632260718</v>
+        <v>133.7801719054974</v>
       </c>
       <c r="R12">
-        <v>1797.880169034647</v>
+        <v>1204.021547149476</v>
       </c>
       <c r="S12">
-        <v>0.004748241390506965</v>
+        <v>0.004611130545396894</v>
       </c>
       <c r="T12">
-        <v>0.005621692815056999</v>
+        <v>0.00618629072599757</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>65.63887766666666</v>
+        <v>65.63887766666667</v>
       </c>
       <c r="H13">
         <v>196.916633</v>
       </c>
       <c r="I13">
-        <v>0.3911828904302115</v>
+        <v>0.4237672483194333</v>
       </c>
       <c r="J13">
-        <v>0.4329898872352535</v>
+        <v>0.4903985313772218</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>80.65247599999999</v>
+        <v>7.596356666666668</v>
       </c>
       <c r="N13">
-        <v>241.957428</v>
+        <v>22.78907</v>
       </c>
       <c r="O13">
-        <v>0.3216722202566815</v>
+        <v>0.04055596820628651</v>
       </c>
       <c r="P13">
-        <v>0.3440725104375696</v>
+        <v>0.04701710770255562</v>
       </c>
       <c r="Q13">
-        <v>5293.938005677768</v>
+        <v>498.6163259557013</v>
       </c>
       <c r="R13">
-        <v>47645.44205109992</v>
+        <v>4487.546933601311</v>
       </c>
       <c r="S13">
-        <v>0.1258326688911123</v>
+        <v>0.01718629104970846</v>
       </c>
       <c r="T13">
-        <v>0.1489799174951138</v>
+        <v>0.02305712056693794</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>13.43183266666667</v>
+        <v>14.273968</v>
       </c>
       <c r="H14">
-        <v>40.295498</v>
+        <v>42.821904</v>
       </c>
       <c r="I14">
-        <v>0.08004864362557332</v>
+        <v>0.09215331457489899</v>
       </c>
       <c r="J14">
-        <v>0.08860370436614354</v>
+        <v>0.1066430931325968</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.8337055</v>
+        <v>7.6250945</v>
       </c>
       <c r="N14">
-        <v>3.667411</v>
+        <v>15.250189</v>
       </c>
       <c r="O14">
-        <v>0.00731350292930732</v>
+        <v>0.04070939579086774</v>
       </c>
       <c r="P14">
-        <v>0.00521519558215984</v>
+        <v>0.03146331898130678</v>
       </c>
       <c r="Q14">
-        <v>24.63002543594634</v>
+        <v>108.840354889976</v>
       </c>
       <c r="R14">
-        <v>147.780152615678</v>
+        <v>653.042129339856</v>
       </c>
       <c r="S14">
-        <v>0.0005854359896427082</v>
+        <v>0.003751505756469904</v>
       </c>
       <c r="T14">
-        <v>0.0004620856475733083</v>
+        <v>0.003355345656384099</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>13.43183266666667</v>
+        <v>14.273968</v>
       </c>
       <c r="H15">
-        <v>40.295498</v>
+        <v>42.821904</v>
       </c>
       <c r="I15">
-        <v>0.08004864362557332</v>
+        <v>0.09215331457489899</v>
       </c>
       <c r="J15">
-        <v>0.08860370436614354</v>
+        <v>0.1066430931325968</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>255.856579</v>
       </c>
       <c r="O15">
-        <v>0.3401505567095424</v>
+        <v>0.4553284220590499</v>
       </c>
       <c r="P15">
-        <v>0.3638376229081851</v>
+        <v>0.5278686814007956</v>
       </c>
       <c r="Q15">
-        <v>1145.540918597927</v>
+        <v>1217.362873745157</v>
       </c>
       <c r="R15">
-        <v>10309.86826738134</v>
+        <v>10956.26586370642</v>
       </c>
       <c r="S15">
-        <v>0.02722859069308253</v>
+        <v>0.0419600233129</v>
       </c>
       <c r="T15">
-        <v>0.03223736117743724</v>
+        <v>0.0562935489524061</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>13.43183266666667</v>
+        <v>14.273968</v>
       </c>
       <c r="H16">
-        <v>40.295498</v>
+        <v>42.821904</v>
       </c>
       <c r="I16">
-        <v>0.08004864362557332</v>
+        <v>0.09215331457489899</v>
       </c>
       <c r="J16">
-        <v>0.08860370436614354</v>
+        <v>0.1066430931325968</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>32.77748500000001</v>
+        <v>15.16635833333333</v>
       </c>
       <c r="N16">
-        <v>98.33245500000001</v>
+        <v>45.499075</v>
       </c>
       <c r="O16">
-        <v>0.1307288616208147</v>
+        <v>0.08097123046773937</v>
       </c>
       <c r="P16">
-        <v>0.1398324280804446</v>
+        <v>0.09387109301264401</v>
       </c>
       <c r="Q16">
-        <v>440.2616937541767</v>
+        <v>216.4841135265333</v>
       </c>
       <c r="R16">
-        <v>3962.355243787591</v>
+        <v>1948.3570217388</v>
       </c>
       <c r="S16">
-        <v>0.01046466805546148</v>
+        <v>0.007461767272810231</v>
       </c>
       <c r="T16">
-        <v>0.01238967111843974</v>
+        <v>0.01001070371460605</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>13.43183266666667</v>
+        <v>14.273968</v>
       </c>
       <c r="H17">
-        <v>40.295498</v>
+        <v>42.821904</v>
       </c>
       <c r="I17">
-        <v>0.08004864362557332</v>
+        <v>0.09215331457489899</v>
       </c>
       <c r="J17">
-        <v>0.08860370436614354</v>
+        <v>0.1066430931325968</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>47.136178</v>
+        <v>69.594059</v>
       </c>
       <c r="N17">
-        <v>94.272356</v>
+        <v>139.188118</v>
       </c>
       <c r="O17">
-        <v>0.1879966962412183</v>
+        <v>0.3715537023867706</v>
       </c>
       <c r="P17">
-        <v>0.1340588154780033</v>
+        <v>0.2871649757941864</v>
       </c>
       <c r="Q17">
-        <v>633.1252554422147</v>
+        <v>993.3833711561122</v>
       </c>
       <c r="R17">
-        <v>3798.751532653288</v>
+        <v>5960.300226936673</v>
       </c>
       <c r="S17">
-        <v>0.01504888054019844</v>
+        <v>0.03423990521751647</v>
       </c>
       <c r="T17">
-        <v>0.01187810765428839</v>
+        <v>0.03062416125803932</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>13.43183266666667</v>
+        <v>14.273968</v>
       </c>
       <c r="H18">
-        <v>40.295498</v>
+        <v>42.821904</v>
       </c>
       <c r="I18">
-        <v>0.08004864362557332</v>
+        <v>0.09215331457489899</v>
       </c>
       <c r="J18">
-        <v>0.08860370436614354</v>
+        <v>0.1066430931325968</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.043386333333333</v>
+        <v>2.038124</v>
       </c>
       <c r="N18">
-        <v>9.130158999999999</v>
+        <v>6.114372</v>
       </c>
       <c r="O18">
-        <v>0.01213816224243598</v>
+        <v>0.01088128108928572</v>
       </c>
       <c r="P18">
-        <v>0.01298342751363752</v>
+        <v>0.01261482310851168</v>
       </c>
       <c r="Q18">
-        <v>40.87825596935355</v>
+        <v>29.09211675603201</v>
       </c>
       <c r="R18">
-        <v>367.904303724182</v>
+        <v>261.829050804288</v>
       </c>
       <c r="S18">
-        <v>0.0009716434236141477</v>
+        <v>0.001002746119198846</v>
       </c>
       <c r="T18">
-        <v>0.001150379773077593</v>
+        <v>0.001345283755612246</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>13.43183266666667</v>
+        <v>14.273968</v>
       </c>
       <c r="H19">
-        <v>40.295498</v>
+        <v>42.821904</v>
       </c>
       <c r="I19">
-        <v>0.08004864362557332</v>
+        <v>0.09215331457489899</v>
       </c>
       <c r="J19">
-        <v>0.08860370436614354</v>
+        <v>0.1066430931325968</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>80.65247599999999</v>
+        <v>7.596356666666668</v>
       </c>
       <c r="N19">
-        <v>241.957428</v>
+        <v>22.78907</v>
       </c>
       <c r="O19">
-        <v>0.3216722202566815</v>
+        <v>0.04055596820628651</v>
       </c>
       <c r="P19">
-        <v>0.3440725104375696</v>
+        <v>0.04701710770255562</v>
       </c>
       <c r="Q19">
-        <v>1083.310561784349</v>
+        <v>108.4301519765867</v>
       </c>
       <c r="R19">
-        <v>9749.795056059143</v>
+        <v>975.8713677892802</v>
       </c>
       <c r="S19">
-        <v>0.02574942492357402</v>
+        <v>0.003737366896003523</v>
       </c>
       <c r="T19">
-        <v>0.03048609899532725</v>
+        <v>0.005014049795548973</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>18.6008475</v>
+        <v>28.1345445</v>
       </c>
       <c r="H20">
-        <v>37.201695</v>
+        <v>56.26908899999999</v>
       </c>
       <c r="I20">
-        <v>0.1108540174384595</v>
+        <v>0.1816377569103415</v>
       </c>
       <c r="J20">
-        <v>0.08180089958683326</v>
+        <v>0.1401317815927423</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.8337055</v>
+        <v>7.6250945</v>
       </c>
       <c r="N20">
-        <v>3.667411</v>
+        <v>15.250189</v>
       </c>
       <c r="O20">
-        <v>0.00731350292930732</v>
+        <v>0.04070939579086774</v>
       </c>
       <c r="P20">
-        <v>0.00521519558215984</v>
+        <v>0.03146331898130678</v>
       </c>
       <c r="Q20">
-        <v>34.10847636541126</v>
+        <v>214.5285605269552</v>
       </c>
       <c r="R20">
-        <v>136.433905461645</v>
+        <v>858.1142421078209</v>
       </c>
       <c r="S20">
-        <v>0.0008107311812616581</v>
+        <v>0.007394363336628514</v>
       </c>
       <c r="T20">
-        <v>0.0004266076901419535</v>
+        <v>0.004409010943671264</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>18.6008475</v>
+        <v>28.1345445</v>
       </c>
       <c r="H21">
-        <v>37.201695</v>
+        <v>56.26908899999999</v>
       </c>
       <c r="I21">
-        <v>0.1108540174384595</v>
+        <v>0.1816377569103415</v>
       </c>
       <c r="J21">
-        <v>0.08180089958683326</v>
+        <v>0.1401317815927423</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>255.856579</v>
       </c>
       <c r="O21">
-        <v>0.3401505567095424</v>
+        <v>0.4553284220590499</v>
       </c>
       <c r="P21">
-        <v>0.3638376229081851</v>
+        <v>0.5278686814007956</v>
       </c>
       <c r="Q21">
-        <v>1586.383069283568</v>
+        <v>2399.469435831089</v>
       </c>
       <c r="R21">
-        <v>9518.298415701405</v>
+        <v>14396.81661498653</v>
       </c>
       <c r="S21">
-        <v>0.03770705574518132</v>
+        <v>0.08270483324033108</v>
       </c>
       <c r="T21">
-        <v>0.02976224485742456</v>
+        <v>0.07397117877170513</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>18.6008475</v>
+        <v>28.1345445</v>
       </c>
       <c r="H22">
-        <v>37.201695</v>
+        <v>56.26908899999999</v>
       </c>
       <c r="I22">
-        <v>0.1108540174384595</v>
+        <v>0.1816377569103415</v>
       </c>
       <c r="J22">
-        <v>0.08180089958683326</v>
+        <v>0.1401317815927423</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>32.77748500000001</v>
+        <v>15.16635833333333</v>
       </c>
       <c r="N22">
-        <v>98.33245500000001</v>
+        <v>45.499075</v>
       </c>
       <c r="O22">
-        <v>0.1307288616208147</v>
+        <v>0.08097123046773937</v>
       </c>
       <c r="P22">
-        <v>0.1398324280804446</v>
+        <v>0.09387109301264401</v>
       </c>
       <c r="Q22">
-        <v>609.6889999185377</v>
+        <v>426.6985834321125</v>
       </c>
       <c r="R22">
-        <v>3658.133999511225</v>
+        <v>2560.191500592674</v>
       </c>
       <c r="S22">
-        <v>0.01449181950582374</v>
+        <v>0.01470743267643048</v>
       </c>
       <c r="T22">
-        <v>0.01143841840839153</v>
+        <v>0.01315432350391983</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>18.6008475</v>
+        <v>28.1345445</v>
       </c>
       <c r="H23">
-        <v>37.201695</v>
+        <v>56.26908899999999</v>
       </c>
       <c r="I23">
-        <v>0.1108540174384595</v>
+        <v>0.1816377569103415</v>
       </c>
       <c r="J23">
-        <v>0.08180089958683326</v>
+        <v>0.1401317815927423</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>47.136178</v>
+        <v>69.594059</v>
       </c>
       <c r="N23">
-        <v>94.272356</v>
+        <v>139.188118</v>
       </c>
       <c r="O23">
-        <v>0.1879966962412183</v>
+        <v>0.3715537023867706</v>
       </c>
       <c r="P23">
-        <v>0.1340588154780033</v>
+        <v>0.2871649757941864</v>
       </c>
       <c r="Q23">
-        <v>876.7728587108551</v>
+        <v>1957.997149871125</v>
       </c>
       <c r="R23">
-        <v>3507.09143484342</v>
+        <v>7831.988599484502</v>
       </c>
       <c r="S23">
-        <v>0.02084018904349678</v>
+        <v>0.06748818107326561</v>
       </c>
       <c r="T23">
-        <v>0.01096613170364596</v>
+        <v>0.04024093966907605</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>18.6008475</v>
+        <v>28.1345445</v>
       </c>
       <c r="H24">
-        <v>37.201695</v>
+        <v>56.26908899999999</v>
       </c>
       <c r="I24">
-        <v>0.1108540174384595</v>
+        <v>0.1816377569103415</v>
       </c>
       <c r="J24">
-        <v>0.08180089958683326</v>
+        <v>0.1401317815927423</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>3.043386333333333</v>
+        <v>2.038124</v>
       </c>
       <c r="N24">
-        <v>9.130158999999999</v>
+        <v>6.114372</v>
       </c>
       <c r="O24">
-        <v>0.01213816224243598</v>
+        <v>0.01088128108928572</v>
       </c>
       <c r="P24">
-        <v>0.01298342751363752</v>
+        <v>0.01261482310851168</v>
       </c>
       <c r="Q24">
-        <v>56.60956506991749</v>
+        <v>57.341690374518</v>
       </c>
       <c r="R24">
-        <v>339.657390419505</v>
+        <v>344.050142247108</v>
       </c>
       <c r="S24">
-        <v>0.001345564048893848</v>
+        <v>0.001976451489368775</v>
       </c>
       <c r="T24">
-        <v>0.001062056050335991</v>
+        <v>0.001767737636673037</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>18.6008475</v>
+        <v>28.1345445</v>
       </c>
       <c r="H25">
-        <v>37.201695</v>
+        <v>56.26908899999999</v>
       </c>
       <c r="I25">
-        <v>0.1108540174384595</v>
+        <v>0.1816377569103415</v>
       </c>
       <c r="J25">
-        <v>0.08180089958683326</v>
+        <v>0.1401317815927423</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>80.65247599999999</v>
+        <v>7.596356666666668</v>
       </c>
       <c r="N25">
-        <v>241.957428</v>
+        <v>22.78907</v>
       </c>
       <c r="O25">
-        <v>0.3216722202566815</v>
+        <v>0.04055596820628651</v>
       </c>
       <c r="P25">
-        <v>0.3440725104375696</v>
+        <v>0.04701710770255562</v>
       </c>
       <c r="Q25">
-        <v>1500.20440657341</v>
+        <v>213.720034676205</v>
       </c>
       <c r="R25">
-        <v>9001.226439440459</v>
+        <v>1282.32020805723</v>
       </c>
       <c r="S25">
-        <v>0.03565865791380214</v>
+        <v>0.007366495094317009</v>
       </c>
       <c r="T25">
-        <v>0.02814544087689327</v>
+        <v>0.006588591067696964</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>23.69336933333333</v>
+        <v>2.253741</v>
       </c>
       <c r="H26">
-        <v>71.080108</v>
+        <v>6.761222999999999</v>
       </c>
       <c r="I26">
-        <v>0.1412035218961498</v>
+        <v>0.0145502430258599</v>
       </c>
       <c r="J26">
-        <v>0.1562944047879878</v>
+        <v>0.01683805872058504</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.8337055</v>
+        <v>7.6250945</v>
       </c>
       <c r="N26">
-        <v>3.667411</v>
+        <v>15.250189</v>
       </c>
       <c r="O26">
-        <v>0.00731350292930732</v>
+        <v>0.04070939579086774</v>
       </c>
       <c r="P26">
-        <v>0.00521519558215984</v>
+        <v>0.03146331898130678</v>
       </c>
       <c r="Q26">
-        <v>43.44666166006467</v>
+        <v>17.1849881035245</v>
       </c>
       <c r="R26">
-        <v>260.679969960388</v>
+        <v>103.109928621147</v>
       </c>
       <c r="S26">
-        <v>0.001032692371016002</v>
+        <v>0.0005923316021930437</v>
       </c>
       <c r="T26">
-        <v>0.0008151058893666158</v>
+        <v>0.0005297812125517414</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>23.69336933333333</v>
+        <v>2.253741</v>
       </c>
       <c r="H27">
-        <v>71.080108</v>
+        <v>6.761222999999999</v>
       </c>
       <c r="I27">
-        <v>0.1412035218961498</v>
+        <v>0.0145502430258599</v>
       </c>
       <c r="J27">
-        <v>0.1562944047879878</v>
+        <v>0.01683805872058504</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>255.856579</v>
       </c>
       <c r="O27">
-        <v>0.3401505567095424</v>
+        <v>0.4553284220590499</v>
       </c>
       <c r="P27">
-        <v>0.3638376229081851</v>
+        <v>0.5278686814007956</v>
       </c>
       <c r="Q27">
-        <v>2020.701474203393</v>
+        <v>192.211487404013</v>
       </c>
       <c r="R27">
-        <v>18186.31326783053</v>
+        <v>1729.903386636117</v>
       </c>
       <c r="S27">
-        <v>0.04803045658232343</v>
+        <v>0.006625139197540483</v>
       </c>
       <c r="T27">
-        <v>0.05686578471191115</v>
+        <v>0.00888828385418439</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>23.69336933333333</v>
+        <v>2.253741</v>
       </c>
       <c r="H28">
-        <v>71.080108</v>
+        <v>6.761222999999999</v>
       </c>
       <c r="I28">
-        <v>0.1412035218961498</v>
+        <v>0.0145502430258599</v>
       </c>
       <c r="J28">
-        <v>0.1562944047879878</v>
+        <v>0.01683805872058504</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>32.77748500000001</v>
+        <v>15.16635833333333</v>
       </c>
       <c r="N28">
-        <v>98.33245500000001</v>
+        <v>45.499075</v>
       </c>
       <c r="O28">
-        <v>0.1307288616208147</v>
+        <v>0.08097123046773937</v>
       </c>
       <c r="P28">
-        <v>0.1398324280804446</v>
+        <v>0.09387109301264401</v>
       </c>
       <c r="Q28">
-        <v>776.6090579227935</v>
+        <v>34.18104359652499</v>
       </c>
       <c r="R28">
-        <v>6989.481521305141</v>
+        <v>307.629392368725</v>
       </c>
       <c r="S28">
-        <v>0.01845937567433344</v>
+        <v>0.001178151081408519</v>
       </c>
       <c r="T28">
-        <v>0.0218550261168922</v>
+        <v>0.001580606976312399</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>23.69336933333333</v>
+        <v>2.253741</v>
       </c>
       <c r="H29">
-        <v>71.080108</v>
+        <v>6.761222999999999</v>
       </c>
       <c r="I29">
-        <v>0.1412035218961498</v>
+        <v>0.0145502430258599</v>
       </c>
       <c r="J29">
-        <v>0.1562944047879878</v>
+        <v>0.01683805872058504</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>47.136178</v>
+        <v>69.594059</v>
       </c>
       <c r="N29">
-        <v>94.272356</v>
+        <v>139.188118</v>
       </c>
       <c r="O29">
-        <v>0.1879966962412183</v>
+        <v>0.3715537023867706</v>
       </c>
       <c r="P29">
-        <v>0.1340588154780033</v>
+        <v>0.2871649757941864</v>
       </c>
       <c r="Q29">
-        <v>1116.814874315741</v>
+        <v>156.846984124719</v>
       </c>
       <c r="R29">
-        <v>6700.889245894447</v>
+        <v>941.0819047483139</v>
       </c>
       <c r="S29">
-        <v>0.02654579561410069</v>
+        <v>0.005406196666885533</v>
       </c>
       <c r="T29">
-        <v>0.02095264277171722</v>
+        <v>0.004835300724917891</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>23.69336933333333</v>
+        <v>2.253741</v>
       </c>
       <c r="H30">
-        <v>71.080108</v>
+        <v>6.761222999999999</v>
       </c>
       <c r="I30">
-        <v>0.1412035218961498</v>
+        <v>0.0145502430258599</v>
       </c>
       <c r="J30">
-        <v>0.1562944047879878</v>
+        <v>0.01683805872058504</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>3.043386333333333</v>
+        <v>2.038124</v>
       </c>
       <c r="N30">
-        <v>9.130158999999999</v>
+        <v>6.114372</v>
       </c>
       <c r="O30">
-        <v>0.01213816224243598</v>
+        <v>0.01088128108928572</v>
       </c>
       <c r="P30">
-        <v>0.01298342751363752</v>
+        <v>0.01261482310851168</v>
       </c>
       <c r="Q30">
-        <v>72.10807641968576</v>
+        <v>4.593403621884</v>
       </c>
       <c r="R30">
-        <v>648.9726877771719</v>
+        <v>41.340632596956</v>
       </c>
       <c r="S30">
-        <v>0.001713951257978828</v>
+        <v>0.0001583252842818007</v>
       </c>
       <c r="T30">
-        <v>0.002029237075351961</v>
+        <v>0.0002124091322509128</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>23.69336933333333</v>
+        <v>2.253741</v>
       </c>
       <c r="H31">
-        <v>71.080108</v>
+        <v>6.761222999999999</v>
       </c>
       <c r="I31">
-        <v>0.1412035218961498</v>
+        <v>0.0145502430258599</v>
       </c>
       <c r="J31">
-        <v>0.1562944047879878</v>
+        <v>0.01683805872058504</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>80.65247599999999</v>
+        <v>7.596356666666668</v>
       </c>
       <c r="N31">
-        <v>241.957428</v>
+        <v>22.78907</v>
       </c>
       <c r="O31">
-        <v>0.3216722202566815</v>
+        <v>0.04055596820628651</v>
       </c>
       <c r="P31">
-        <v>0.3440725104375696</v>
+        <v>0.04701710770255562</v>
       </c>
       <c r="Q31">
-        <v>1910.928901515802</v>
+        <v>17.12022047029</v>
       </c>
       <c r="R31">
-        <v>17198.36011364222</v>
+        <v>154.08198423261</v>
       </c>
       <c r="S31">
-        <v>0.04542125039639746</v>
+        <v>0.0005900991935505161</v>
       </c>
       <c r="T31">
-        <v>0.05377660822274866</v>
+        <v>0.0007916768203677025</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>16.42760466666666</v>
+        <v>9.590102333333334</v>
       </c>
       <c r="H32">
-        <v>49.28281399999999</v>
+        <v>28.770307</v>
       </c>
       <c r="I32">
-        <v>0.09790231193448495</v>
+        <v>0.06191408843911794</v>
       </c>
       <c r="J32">
-        <v>0.108365452686244</v>
+        <v>0.07164918516594687</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.8337055</v>
+        <v>7.6250945</v>
       </c>
       <c r="N32">
-        <v>3.667411</v>
+        <v>15.250189</v>
       </c>
       <c r="O32">
-        <v>0.00731350292930732</v>
+        <v>0.04070939579086774</v>
       </c>
       <c r="P32">
-        <v>0.00521519558215984</v>
+        <v>0.03146331898130678</v>
       </c>
       <c r="Q32">
-        <v>30.12338902909233</v>
+        <v>73.12543655633718</v>
       </c>
       <c r="R32">
-        <v>180.740334174554</v>
+        <v>438.7526193380231</v>
       </c>
       <c r="S32">
-        <v>0.0007160088451188147</v>
+        <v>0.002520485131298841</v>
       </c>
       <c r="T32">
-        <v>0.0005651470301080508</v>
+        <v>0.002254321167626901</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>16.42760466666666</v>
+        <v>9.590102333333334</v>
       </c>
       <c r="H33">
-        <v>49.28281399999999</v>
+        <v>28.770307</v>
       </c>
       <c r="I33">
-        <v>0.09790231193448495</v>
+        <v>0.06191408843911794</v>
       </c>
       <c r="J33">
-        <v>0.108365452686244</v>
+        <v>0.07164918516594687</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>255.856579</v>
       </c>
       <c r="O33">
-        <v>0.3401505567095424</v>
+        <v>0.4553284220590499</v>
       </c>
       <c r="P33">
-        <v>0.3638376229081851</v>
+        <v>0.5278686814007956</v>
       </c>
       <c r="Q33">
-        <v>1401.036910392589</v>
+        <v>817.8969250888615</v>
       </c>
       <c r="R33">
-        <v>12609.33219353331</v>
+        <v>7361.072325799754</v>
       </c>
       <c r="S33">
-        <v>0.03330152590766634</v>
+        <v>0.02819124419220803</v>
       </c>
       <c r="T33">
-        <v>0.03942742871073242</v>
+        <v>0.03782136089698981</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>16.42760466666666</v>
+        <v>9.590102333333334</v>
       </c>
       <c r="H34">
-        <v>49.28281399999999</v>
+        <v>28.770307</v>
       </c>
       <c r="I34">
-        <v>0.09790231193448495</v>
+        <v>0.06191408843911794</v>
       </c>
       <c r="J34">
-        <v>0.108365452686244</v>
+        <v>0.07164918516594687</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>32.77748500000001</v>
+        <v>15.16635833333333</v>
       </c>
       <c r="N34">
-        <v>98.33245500000001</v>
+        <v>45.499075</v>
       </c>
       <c r="O34">
-        <v>0.1307288616208147</v>
+        <v>0.08097123046773937</v>
       </c>
       <c r="P34">
-        <v>0.1398324280804446</v>
+        <v>0.09387109301264401</v>
       </c>
       <c r="Q34">
-        <v>538.4555655475966</v>
+        <v>145.4469284406695</v>
       </c>
       <c r="R34">
-        <v>4846.10008992837</v>
+        <v>1309.022355966025</v>
       </c>
       <c r="S34">
-        <v>0.01279865778924111</v>
+        <v>0.005013259924203816</v>
       </c>
       <c r="T34">
-        <v>0.01515300436915403</v>
+        <v>0.006725787324992753</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>16.42760466666666</v>
+        <v>9.590102333333334</v>
       </c>
       <c r="H35">
-        <v>49.28281399999999</v>
+        <v>28.770307</v>
       </c>
       <c r="I35">
-        <v>0.09790231193448495</v>
+        <v>0.06191408843911794</v>
       </c>
       <c r="J35">
-        <v>0.108365452686244</v>
+        <v>0.07164918516594687</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>47.136178</v>
+        <v>69.594059</v>
       </c>
       <c r="N35">
-        <v>94.272356</v>
+        <v>139.188118</v>
       </c>
       <c r="O35">
-        <v>0.1879966962412183</v>
+        <v>0.3715537023867706</v>
       </c>
       <c r="P35">
-        <v>0.1340588154780033</v>
+        <v>0.2871649757941864</v>
       </c>
       <c r="Q35">
-        <v>774.3344976816305</v>
+        <v>667.4141476020377</v>
       </c>
       <c r="R35">
-        <v>4646.006986089784</v>
+        <v>4004.484885612226</v>
       </c>
       <c r="S35">
-        <v>0.01840531119806036</v>
+        <v>0.02300440878945622</v>
       </c>
       <c r="T35">
-        <v>0.01452734422585548</v>
+        <v>0.02057513652385231</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>16.42760466666666</v>
+        <v>9.590102333333334</v>
       </c>
       <c r="H36">
-        <v>49.28281399999999</v>
+        <v>28.770307</v>
       </c>
       <c r="I36">
-        <v>0.09790231193448495</v>
+        <v>0.06191408843911794</v>
       </c>
       <c r="J36">
-        <v>0.108365452686244</v>
+        <v>0.07164918516594687</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>3.043386333333333</v>
+        <v>2.038124</v>
       </c>
       <c r="N36">
-        <v>9.130158999999999</v>
+        <v>6.114372</v>
       </c>
       <c r="O36">
-        <v>0.01213816224243598</v>
+        <v>0.01088128108928572</v>
       </c>
       <c r="P36">
-        <v>0.01298342751363752</v>
+        <v>0.01261482310851168</v>
       </c>
       <c r="Q36">
-        <v>49.9955475319362</v>
+        <v>19.54581772802267</v>
       </c>
       <c r="R36">
-        <v>449.9599277874259</v>
+        <v>175.912359552204</v>
       </c>
       <c r="S36">
-        <v>0.001188354146170355</v>
+        <v>0.0006737045996929375</v>
       </c>
       <c r="T36">
-        <v>0.001406954999934365</v>
+        <v>0.0009038417967374192</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>16.42760466666666</v>
+        <v>9.590102333333334</v>
       </c>
       <c r="H37">
-        <v>49.28281399999999</v>
+        <v>28.770307</v>
       </c>
       <c r="I37">
-        <v>0.09790231193448495</v>
+        <v>0.06191408843911794</v>
       </c>
       <c r="J37">
-        <v>0.108365452686244</v>
+        <v>0.07164918516594687</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>80.65247599999999</v>
+        <v>7.596356666666668</v>
       </c>
       <c r="N37">
-        <v>241.957428</v>
+        <v>22.78907</v>
       </c>
       <c r="O37">
-        <v>0.3216722202566815</v>
+        <v>0.04055596820628651</v>
       </c>
       <c r="P37">
-        <v>0.3440725104375696</v>
+        <v>0.04701710770255562</v>
       </c>
       <c r="Q37">
-        <v>1324.926991115821</v>
+        <v>72.84983779383224</v>
       </c>
       <c r="R37">
-        <v>11924.34292004239</v>
+        <v>655.6485401444901</v>
       </c>
       <c r="S37">
-        <v>0.03149245404822798</v>
+        <v>0.002510985802258078</v>
       </c>
       <c r="T37">
-        <v>0.03728557335045964</v>
+        <v>0.003368737455747675</v>
       </c>
     </row>
   </sheetData>
